--- a/rhla_analysis/rhla1_3_exp_result/k2.xlsx
+++ b/rhla_analysis/rhla1_3_exp_result/k2.xlsx
@@ -457,21 +457,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.0355437470590976</v>
+        <v>0.03554374705909726</v>
       </c>
       <c r="B2" t="n">
-        <v>0.2244053305636899</v>
+        <v>0.22440533056369</v>
       </c>
       <c r="C2" t="n">
         <v>0.0711849957374254</v>
       </c>
       <c r="D2" t="n">
-        <v>6.313496722519926</v>
+        <v>6.313496722519988</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.02451471067491108</v>
+        <v>0.02451471067491094</v>
       </c>
       <c r="B3" t="n">
         <v>0.2876759054460646</v>
@@ -480,12 +480,12 @@
         <v>0.07203751065643649</v>
       </c>
       <c r="D3" t="n">
-        <v>11.73482768207739</v>
+        <v>11.73482768207745</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.02629804649333909</v>
+        <v>0.02629804649333919</v>
       </c>
       <c r="B4" t="n">
         <v>0.2070197085073337</v>
@@ -494,12 +494,12 @@
         <v>0.06649616368286446</v>
       </c>
       <c r="D4" t="n">
-        <v>7.87205652555861</v>
+        <v>7.87205652555858</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.02390047936114575</v>
+        <v>0.02390047936114579</v>
       </c>
       <c r="B5" t="n">
         <v>0.2974138968301265</v>
@@ -508,12 +508,12 @@
         <v>0.08312020460358056</v>
       </c>
       <c r="D5" t="n">
-        <v>12.44384651605034</v>
+        <v>12.44384651605032</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.02209184601483605</v>
+        <v>0.02209184601483628</v>
       </c>
       <c r="B6" t="n">
         <v>0.2302165491060486</v>
@@ -522,12 +522,12 @@
         <v>0.06990622335890878</v>
       </c>
       <c r="D6" t="n">
-        <v>10.42088329564871</v>
+        <v>10.42088329564861</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.01777406838936777</v>
+        <v>0.01777406838936778</v>
       </c>
       <c r="B7" t="n">
         <v>0.2808841366348281</v>
@@ -536,26 +536,26 @@
         <v>0.06521739130434782</v>
       </c>
       <c r="D7" t="n">
-        <v>15.80303003688506</v>
+        <v>15.80303003688505</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.0215749752144474</v>
+        <v>0.02157497521444757</v>
       </c>
       <c r="B8" t="n">
-        <v>0.1934555894101042</v>
+        <v>0.1934555894101041</v>
       </c>
       <c r="C8" t="n">
         <v>0.07374254049445865</v>
       </c>
       <c r="D8" t="n">
-        <v>8.966665661824685</v>
+        <v>8.966665661824614</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.01480348968714651</v>
+        <v>0.01480348968714648</v>
       </c>
       <c r="B9" t="n">
         <v>0.2283540698478625</v>
@@ -564,12 +564,12 @@
         <v>0.06734867860187553</v>
       </c>
       <c r="D9" t="n">
-        <v>15.42569182495776</v>
+        <v>15.4256918249578</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.00923006585455291</v>
+        <v>0.009230065854552915</v>
       </c>
       <c r="B10" t="n">
         <v>0.2180783116775483</v>
@@ -578,12 +578,12 @@
         <v>0.05541346973572037</v>
       </c>
       <c r="D10" t="n">
-        <v>23.626950783886</v>
+        <v>23.62695078388598</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.01469960802649118</v>
+        <v>0.01469960802649114</v>
       </c>
       <c r="B11" t="n">
         <v>0.223701978474735</v>
@@ -592,7 +592,7 @@
         <v>0.06479113384484228</v>
       </c>
       <c r="D11" t="n">
-        <v>15.21822745692172</v>
+        <v>15.21822745692176</v>
       </c>
     </row>
   </sheetData>
